--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5319837C-AC3E-45E1-9691-A977FC0BE637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F4188-D839-4575-A4CA-4917EBEAD81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メインページ" sheetId="1" r:id="rId1"/>
     <sheet name="メイン料理条件入力" sheetId="3" r:id="rId2"/>
-    <sheet name="メイン料理検索結果" sheetId="4" r:id="rId3"/>
+    <sheet name="メイン料理結果表示" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">メインページ!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">メイン料理検索結果!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">メイン料理結果表示!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">メイン料理条件入力!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -233,185 +232,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・食材の期限の確認、削除</t>
-    <rPh sb="1" eb="3">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン料理検索ページへ遷移。</t>
-    <rPh sb="3" eb="7">
-      <t>リョウリケンサク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>食材登録ページへ遷移。</t>
-    <rPh sb="0" eb="4">
-      <t>ショクザイトウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン料理一覧ページへ遷移。</t>
-    <rPh sb="3" eb="5">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>冷蔵庫の中身ページへ遷移。</t>
-    <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①はらペコ。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>②
-メイン料理検索</t>
-    <rPh sb="5" eb="9">
-      <t>リョウリケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>③
-食材登録</t>
-    <rPh sb="2" eb="6">
-      <t>ショクザイトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>④
-メイン料理一覧</t>
-    <rPh sb="5" eb="9">
-      <t>リョウリイチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑤
-冷蔵庫の中身</t>
-    <rPh sb="2" eb="5">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑥卵が明日までです！！　　⑦　　　
-⑥玉ねぎが今日までです！！⑦</t>
-    <rPh sb="1" eb="2">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アシタ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・期限が近い食材名の表示（⑥）</t>
-    <rPh sb="1" eb="3">
-      <t>キゲン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「②メイン料理検索クリック」</t>
-    <rPh sb="5" eb="9">
-      <t>リョウリケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「③食材登録」</t>
-    <rPh sb="2" eb="6">
-      <t>ショクザイトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「④メイン料理一覧」</t>
-    <rPh sb="5" eb="9">
-      <t>リョウリイチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「⑤冷蔵庫の中身」</t>
-    <rPh sb="2" eb="5">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑥クリックすると検索ページへ遷移。</t>
-    <rPh sb="8" eb="10">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑦冷蔵庫の中身から該当データを削除。</t>
-    <rPh sb="1" eb="4">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナカミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -604,10 +425,6 @@
   <si>
     <t>リセット</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Link</t>
@@ -805,16 +622,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>再検索</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>1個前へ戻る</t>
     <rPh sb="1" eb="3">
       <t>コマエ</t>
@@ -828,6 +635,81 @@
     <t>②どんな気分？？</t>
     <rPh sb="4" eb="6">
       <t>キブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>再提案</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②
+メイン料理を教えてもらう</t>
+    <rPh sb="5" eb="7">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「②メイン料理を教えてもらう」</t>
+    <rPh sb="5" eb="7">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン料理条件入力ページへ遷移。</t>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ジョウケンニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧入力してあるものをリセット</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦メイン料理結果表示へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -924,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1321,49 +1203,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1483,6 +1328,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1501,47 +1353,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,9 +1401,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1597,40 +1419,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,15 +1464,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1672,10 +1476,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,11 +1506,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1727,137 +1533,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F206BCA4-346F-4468-BDA2-B6BFC12D72E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6743700" y="5356860"/>
-          <a:ext cx="716280" cy="281940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バイバイ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96DC2E6-9260-42D3-B136-DA7A8D5F4CA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6743700" y="5631180"/>
-          <a:ext cx="716280" cy="281940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バイバイ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2183,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:W23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2193,152 +1868,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="78" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="84">
         <v>44350</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2513,7 +2188,7 @@
       <c r="AM8" s="7"/>
       <c r="AN8" s="7"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="9"/>
@@ -2525,26 +2200,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="51"/>
+      <c r="L9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -2557,7 +2232,7 @@
       <c r="AM9" s="7"/>
       <c r="AN9" s="7"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
@@ -2569,32 +2244,30 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="57"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
-      <c r="AG10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="60"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
       <c r="AJ10" s="25"/>
       <c r="AK10" s="26"/>
       <c r="AL10" s="9"/>
@@ -2613,24 +2286,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="57"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -2652,13 +2325,13 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
+      <c r="I12" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -2696,11 +2369,11 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -2739,12 +2412,10 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
@@ -2759,12 +2430,10 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
       <c r="AA14" s="25"/>
-      <c r="AB14" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="47"/>
+      <c r="AE14" s="47"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="25"/>
@@ -2785,28 +2454,30 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
+      <c r="O15" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
@@ -2827,28 +2498,28 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
+      <c r="AB16" s="47"/>
+      <c r="AC16" s="47"/>
+      <c r="AD16" s="47"/>
+      <c r="AE16" s="47"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
@@ -2869,28 +2540,28 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
@@ -2911,28 +2582,28 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
@@ -2961,10 +2632,10 @@
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
       <c r="X19" s="25"/>
@@ -3003,10 +2674,10 @@
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25"/>
@@ -3043,15 +2714,15 @@
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
       <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
       <c r="Y21" s="25"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
@@ -3079,32 +2750,28 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
-      <c r="AB22" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
       <c r="AF22" s="25"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="25"/>
@@ -3125,28 +2792,28 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="25"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
@@ -3167,28 +2834,28 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="25"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="25"/>
@@ -3209,10 +2876,10 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
@@ -3221,16 +2888,16 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
@@ -3251,10 +2918,10 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
@@ -3269,10 +2936,10 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -3374,36 +3041,34 @@
       <c r="D29" s="27"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="89"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
       <c r="AI29" s="25"/>
       <c r="AJ29" s="25"/>
       <c r="AK29" s="26"/>
@@ -3418,34 +3083,34 @@
       <c r="D30" s="27"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="91"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="91"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="92"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
       <c r="AI30" s="25"/>
       <c r="AJ30" s="25"/>
       <c r="AK30" s="26"/>
@@ -3460,34 +3125,34 @@
       <c r="D31" s="27"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="91"/>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
-      <c r="AE31" s="91"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="92"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
       <c r="AI31" s="25"/>
       <c r="AJ31" s="25"/>
       <c r="AK31" s="26"/>
@@ -3502,34 +3167,34 @@
       <c r="D32" s="27"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="94"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="95"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
       <c r="AI32" s="25"/>
       <c r="AJ32" s="25"/>
       <c r="AK32" s="26"/>
@@ -3920,9 +3585,7 @@
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -3965,8 +3628,8 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="38" t="s">
-        <v>25</v>
+      <c r="D43" s="39" t="s">
+        <v>94</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -4009,7 +3672,9 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39" t="s">
+        <v>95</v>
+      </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -4051,9 +3716,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="D45" s="39"/>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
@@ -4095,9 +3758,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="35" t="s">
-        <v>27</v>
-      </c>
+      <c r="D46" s="35"/>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -4137,9 +3798,6 @@
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="AM47" s="33"/>
       <c r="AN47" s="43"/>
     </row>
@@ -4230,9 +3888,6 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="39" t="s">
-        <v>39</v>
-      </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -4274,9 +3929,6 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="40"/>
-      <c r="D51" s="39" t="s">
-        <v>28</v>
-      </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -4360,9 +4012,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="D53" s="10"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4404,9 +4054,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="D54" s="10"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -4490,9 +4138,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -4534,9 +4180,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -4620,9 +4264,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -4664,9 +4306,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="D60" s="10"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -4750,9 +4390,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="D62" s="10"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4836,9 +4474,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="10"/>
-      <c r="D64" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="D64" s="40"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -5535,19 +5171,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5585,7 +5221,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -5597,7 +5233,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -5635,7 +5271,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -5647,7 +5283,7 @@
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
@@ -5685,19 +5321,19 @@
         <v>4</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -5735,19 +5371,19 @@
         <v>5</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -5785,24 +5421,24 @@
         <v>6</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -5837,19 +5473,19 @@
         <v>7</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -6895,15 +6531,8 @@
       <c r="AN110" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="G29:AH32"/>
-    <mergeCell ref="J22:M26"/>
-    <mergeCell ref="J14:M18"/>
-    <mergeCell ref="AB14:AE18"/>
-    <mergeCell ref="AB22:AE26"/>
-    <mergeCell ref="AG10:AI10"/>
-    <mergeCell ref="I12:M13"/>
+  <mergeCells count="18">
+    <mergeCell ref="O15:Y18"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -6919,6 +6548,8 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="I12:M13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6926,7 +6557,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6934,8 +6564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFD6A0-2235-4599-BF7B-BA0A72DD2A7B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6944,152 +6574,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="78" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="84">
         <v>44351</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7276,26 +6906,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="51"/>
+      <c r="L9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -7320,24 +6950,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="57"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -7362,24 +6992,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="57"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -7486,14 +7116,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="101"/>
+      <c r="J14" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -7505,12 +7135,14 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="111"/>
+      <c r="AA14" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB14" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="98"/>
       <c r="AE14" s="47"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
@@ -7532,12 +7164,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="104"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="94"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -7577,7 +7209,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="25"/>
@@ -7664,7 +7296,7 @@
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
       <c r="M18" s="28" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -7676,19 +7308,19 @@
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB18" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
+        <v>69</v>
+      </c>
+      <c r="AB18" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -7713,31 +7345,31 @@
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
       <c r="AA19" s="28" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="AB19" s="28"/>
       <c r="AC19" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD19" s="106" t="s">
-        <v>85</v>
+        <v>66</v>
+      </c>
+      <c r="AD19" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AF19" s="25"/>
@@ -7763,34 +7395,34 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="113"/>
-      <c r="R20" s="113"/>
-      <c r="S20" s="113"/>
-      <c r="T20" s="113"/>
+        <v>42</v>
+      </c>
+      <c r="M20" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="28" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB20" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
+        <v>71</v>
+      </c>
+      <c r="AB20" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -7815,16 +7447,16 @@
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
+      <c r="M21" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="47"/>
@@ -7859,16 +7491,16 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
+      <c r="M22" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
       <c r="W22" s="47"/>
@@ -7903,28 +7535,30 @@
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
+      <c r="M23" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="113"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="109" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC23" s="110"/>
-      <c r="AD23" s="111"/>
+      <c r="AA23" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB23" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="98"/>
       <c r="AE23" s="47"/>
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
@@ -7949,23 +7583,23 @@
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="123" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
+      <c r="M24" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="113"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="50"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
       <c r="AB24" s="47"/>
@@ -7996,12 +7630,12 @@
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="28" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="28" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
@@ -8042,7 +7676,7 @@
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="28" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
@@ -8084,13 +7718,13 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="113"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
@@ -8922,7 +8556,7 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="AM47" s="33"/>
       <c r="AN47" s="43"/>
@@ -8973,7 +8607,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="34"/>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -9059,7 +8693,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="40"/>
       <c r="D51" s="38" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
@@ -9145,7 +8779,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="40"/>
       <c r="D53" s="38" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
@@ -9230,7 +8864,9 @@
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
+      <c r="D55" s="40" t="s">
+        <v>99</v>
+      </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -9314,7 +8950,9 @@
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
+      <c r="D57" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -10305,19 +9943,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -10365,7 +10003,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="42" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -10407,7 +10045,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -10453,7 +10091,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -10499,7 +10137,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -10545,7 +10183,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -10591,13 +10229,13 @@
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="42" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -10639,7 +10277,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -10685,7 +10323,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
       <c r="H88" s="42" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -11648,6 +11286,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -11655,20 +11306,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AB14:AD14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11683,8 +11321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D009406-EBC5-4E69-B0F3-FD3B2CA007B9}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:O15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11693,152 +11331,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="78" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79" t="s">
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79" t="s">
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="80" t="s">
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61"/>
-      <c r="AN1" s="62"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="81"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="63" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64" t="s">
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="65">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="84">
         <v>44351</v>
       </c>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="66" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="81" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="86"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -12025,26 +11663,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="51"/>
+      <c r="L9" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -12069,24 +11707,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="57"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -12111,24 +11749,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="57"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -12235,14 +11873,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="101"/>
+      <c r="J14" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="91"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -12279,12 +11917,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="104"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="94"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -12324,7 +11962,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -12409,14 +12047,14 @@
       <c r="I18" s="25"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="115" t="s">
-        <v>95</v>
-      </c>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="117"/>
+      <c r="L18" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
       <c r="R18" s="28"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -12453,12 +12091,12 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
       <c r="R19" s="28"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -12579,18 +12217,18 @@
       <c r="I22" s="25"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="115" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="117"/>
+      <c r="L22" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="104"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
@@ -12625,15 +12263,15 @@
       <c r="I23" s="25"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="122"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="110"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="113"/>
+      <c r="T23" s="50"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
@@ -12667,15 +12305,15 @@
       <c r="I24" s="25"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="122"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="110"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
-      <c r="T24" s="113"/>
+      <c r="T24" s="50"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
@@ -12709,15 +12347,15 @@
       <c r="I25" s="25"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="122"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
-      <c r="T25" s="113"/>
+      <c r="T25" s="50"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
@@ -12751,15 +12389,15 @@
       <c r="I26" s="25"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="122"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="110"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
-      <c r="T26" s="113"/>
+      <c r="T26" s="50"/>
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
@@ -12793,12 +12431,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="122"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="110"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -12835,16 +12473,16 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="122"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="110"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -12879,16 +12517,16 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="122"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="110"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -12923,16 +12561,16 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="122"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="110"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -12967,16 +12605,16 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="107"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
@@ -13023,14 +12661,14 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y32" s="112"/>
+      <c r="X32" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y32" s="100"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -15016,19 +14654,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -15070,7 +14708,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
       <c r="H81" s="42" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -15116,7 +14754,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -15162,7 +14800,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -15208,7 +14846,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -15254,7 +14892,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -15300,7 +14938,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -15346,7 +14984,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -15392,7 +15030,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
       <c r="H88" s="42" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -15438,7 +15076,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="41"/>
       <c r="H89" s="42" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -15484,7 +15122,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="41"/>
       <c r="H90" s="42" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -16361,6 +15999,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -16369,14 +16014,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="L9:AC11"/>
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="L18:Q19"/>

--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F4188-D839-4575-A4CA-4917EBEAD81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728737E0-4F5B-4287-939D-CE77B480E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -199,13 +199,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>食材登録</t>
-    <rPh sb="0" eb="4">
-      <t>ショクザイトウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ページロード</t>
   </si>
   <si>
@@ -245,64 +238,6 @@
   </si>
   <si>
     <t>Image</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dishsearch</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>foodregist</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン料理一覧</t>
-    <rPh sb="3" eb="5">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>dishlist</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>冷蔵庫の中身</t>
-    <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>foodlist</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>通知</t>
-    <rPh sb="0" eb="2">
-      <t>ツウチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>foodalert</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>deletebutton</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -354,24 +289,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>メイン料理検索結果</t>
-    <rPh sb="3" eb="7">
-      <t>リョウリケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケッカ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -425,14 +343,6 @@
   <si>
     <t>リセット</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Link</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>メインメニュー</t>
@@ -505,40 +415,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>②今日のメニューはコレだ！！</t>
     <rPh sb="1" eb="3">
       <t>キョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>料理名</t>
-    <rPh sb="0" eb="3">
-      <t>リョウリメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>写真</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>作り方URL</t>
-    <rPh sb="0" eb="1">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -622,16 +501,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1個前へ戻る</t>
-    <rPh sb="1" eb="3">
-      <t>コマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>②どんな気分？？</t>
     <rPh sb="4" eb="6">
       <t>キブン</t>
@@ -711,6 +580,177 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dish_suggest</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メイン料理条件入力</t>
+    <rPh sb="3" eb="9">
+      <t>リョウリジョウケンニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>はらペコ。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>はらペコ。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>genre</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>cal</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③料理名</t>
+    <rPh sb="1" eb="4">
+      <t>リョウリメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>④写真</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤食材</t>
+    <rPh sb="1" eb="3">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑥ジャンル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦カロリー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧難易度</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑨作り方URL</t>
+    <rPh sb="1" eb="2">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑩メインへ戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑪1個前へ戻る</t>
+    <rPh sb="2" eb="4">
+      <t>コマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑫再提案</t>
+    <rPh sb="1" eb="2">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メイン料理提案結果</t>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>suggestagain</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1359,14 +1399,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1886,7 +1926,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
       <c r="N1" s="73" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O1" s="73"/>
       <c r="P1" s="73"/>
@@ -1937,7 +1977,9 @@
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="N2" s="83" t="s">
+        <v>82</v>
+      </c>
       <c r="O2" s="83"/>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -2201,7 +2243,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -2325,8 +2367,8 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="61" t="s">
-        <v>62</v>
+      <c r="I12" s="60" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -2369,7 +2411,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="62"/>
+      <c r="I13" s="61"/>
       <c r="J13" s="58"/>
       <c r="K13" s="58"/>
       <c r="L13" s="58"/>
@@ -2459,19 +2501,19 @@
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
+      <c r="O15" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="47"/>
@@ -2503,17 +2545,17 @@
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="47"/>
@@ -2545,17 +2587,17 @@
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="47"/>
@@ -2587,17 +2629,17 @@
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="47"/>
@@ -3629,7 +3671,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="38"/>
       <c r="D43" s="39" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -3673,7 +3715,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
@@ -5171,19 +5213,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5221,19 +5263,19 @@
         <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -5270,21 +5312,15 @@
       <c r="C82" s="41">
         <v>3</v>
       </c>
-      <c r="D82" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="D82" s="16"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="H82" s="16"/>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="42" t="s">
-        <v>30</v>
-      </c>
+      <c r="L82" s="42"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -5320,21 +5356,15 @@
       <c r="C83" s="41">
         <v>4</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="D83" s="16"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="H83" s="16"/>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="42" t="s">
-        <v>30</v>
-      </c>
+      <c r="L83" s="42"/>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -5370,21 +5400,15 @@
       <c r="C84" s="41">
         <v>5</v>
       </c>
-      <c r="D84" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="D84" s="16"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="H84" s="16"/>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="42" t="s">
-        <v>30</v>
-      </c>
+      <c r="L84" s="42"/>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -5420,26 +5444,18 @@
       <c r="C85" s="41">
         <v>6</v>
       </c>
-      <c r="D85" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="D85" s="16"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="H85" s="16"/>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="L85" s="16"/>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16" t="s">
-        <v>61</v>
-      </c>
+      <c r="O85" s="16"/>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -5472,21 +5488,15 @@
       <c r="C86" s="41">
         <v>7</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D86" s="16"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="H86" s="16"/>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="L86" s="16"/>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16"/>
@@ -6532,6 +6542,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="I12:M13"/>
     <mergeCell ref="O15:Y18"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
@@ -6546,10 +6560,6 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="I12:M13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6564,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFD6A0-2235-4599-BF7B-BA0A72DD2A7B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6592,7 +6602,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
       <c r="N1" s="73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O1" s="73"/>
       <c r="P1" s="73"/>
@@ -6643,7 +6653,9 @@
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="N2" s="83" t="s">
+        <v>83</v>
+      </c>
       <c r="O2" s="83"/>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -6907,7 +6919,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -6992,7 +7004,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="62"/>
+      <c r="L11" s="61"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
@@ -7117,7 +7129,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="89" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
@@ -7136,10 +7148,10 @@
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
       <c r="AA14" s="25" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AB14" s="96" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AC14" s="97"/>
       <c r="AD14" s="98"/>
@@ -7209,7 +7221,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="25"/>
@@ -7296,7 +7308,7 @@
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
       <c r="M18" s="28" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -7308,16 +7320,16 @@
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="28" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="95" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AC18" s="95"/>
       <c r="AD18" s="95"/>
@@ -7356,20 +7368,20 @@
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="28" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
       <c r="AA19" s="28" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="28"/>
       <c r="AC19" s="48" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="49" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AF19" s="25"/>
@@ -7395,10 +7407,10 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="28" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M20" s="51" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
@@ -7410,16 +7422,16 @@
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="28" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="28" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="95" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AC20" s="95"/>
       <c r="AD20" s="95"/>
@@ -7448,7 +7460,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="28"/>
       <c r="M21" s="51" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
@@ -7492,7 +7504,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
       <c r="M22" s="51" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -7536,7 +7548,7 @@
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
       <c r="M23" s="51" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -7552,10 +7564,10 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AB23" s="96" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC23" s="97"/>
       <c r="AD23" s="98"/>
@@ -7584,12 +7596,12 @@
       <c r="K24" s="47"/>
       <c r="L24" s="25"/>
       <c r="M24" s="51" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="51" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
@@ -7630,12 +7642,12 @@
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="28" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="28" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
@@ -7676,7 +7688,7 @@
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
       <c r="M26" s="28" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
@@ -8342,7 +8354,7 @@
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -8387,7 +8399,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -8473,7 +8485,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -8556,7 +8568,7 @@
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AM47" s="33"/>
       <c r="AN47" s="43"/>
@@ -8607,7 +8619,7 @@
       <c r="B49" s="36"/>
       <c r="C49" s="34"/>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
@@ -8693,7 +8705,7 @@
       <c r="B51" s="36"/>
       <c r="C51" s="40"/>
       <c r="D51" s="38" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
@@ -8779,7 +8791,7 @@
       <c r="B53" s="36"/>
       <c r="C53" s="40"/>
       <c r="D53" s="38" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
@@ -8865,7 +8877,7 @@
       <c r="B55" s="36"/>
       <c r="C55" s="40"/>
       <c r="D55" s="40" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
@@ -8951,7 +8963,7 @@
       <c r="B57" s="36"/>
       <c r="C57" s="40"/>
       <c r="D57" s="40" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
@@ -9943,19 +9955,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -9992,7 +10004,9 @@
       <c r="C81" s="41">
         <v>2</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="42" t="s">
+        <v>84</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
@@ -10003,7 +10017,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="42" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -10040,12 +10054,14 @@
       <c r="C82" s="41">
         <v>3</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -10086,12 +10102,14 @@
       <c r="C83" s="41">
         <v>4</v>
       </c>
-      <c r="D83" s="42"/>
+      <c r="D83" s="42" t="s">
+        <v>86</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -10132,12 +10150,14 @@
       <c r="C84" s="41">
         <v>5</v>
       </c>
-      <c r="D84" s="42"/>
+      <c r="D84" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -10178,12 +10198,14 @@
       <c r="C85" s="41">
         <v>6</v>
       </c>
-      <c r="D85" s="42"/>
+      <c r="D85" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -10224,18 +10246,20 @@
       <c r="C86" s="41">
         <v>7</v>
       </c>
-      <c r="D86" s="42"/>
+      <c r="D86" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -10272,12 +10296,14 @@
       <c r="C87" s="41">
         <v>8</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -10318,12 +10344,14 @@
       <c r="C88" s="41">
         <v>9</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
       <c r="H88" s="42" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -11349,7 +11377,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
       <c r="N1" s="73" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O1" s="73"/>
       <c r="P1" s="73"/>
@@ -11400,7 +11428,9 @@
       </c>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
-      <c r="N2" s="83"/>
+      <c r="N2" s="83" t="s">
+        <v>83</v>
+      </c>
       <c r="O2" s="83"/>
       <c r="P2" s="83"/>
       <c r="Q2" s="83"/>
@@ -11664,7 +11694,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -11749,7 +11779,7 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="62"/>
+      <c r="L11" s="61"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
@@ -11874,7 +11904,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="101" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
@@ -11962,7 +11992,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -12048,7 +12078,7 @@
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
       <c r="L18" s="102" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M18" s="103"/>
       <c r="N18" s="103"/>
@@ -12218,7 +12248,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
       <c r="L22" s="102" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M22" s="103"/>
       <c r="N22" s="103"/>
@@ -12228,7 +12258,7 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
@@ -12482,7 +12512,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -12526,7 +12556,7 @@
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -12570,7 +12600,7 @@
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -12614,7 +12644,7 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
@@ -12662,13 +12692,13 @@
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
       <c r="X32" s="99" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="Y32" s="100"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -13067,7 +13097,7 @@
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -13112,7 +13142,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -13198,7 +13228,7 @@
       <c r="B45" s="36"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -14654,19 +14684,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -14703,12 +14733,14 @@
       <c r="C81" s="41">
         <v>2</v>
       </c>
-      <c r="D81" s="42"/>
+      <c r="D81" s="42" t="s">
+        <v>84</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
       <c r="H81" s="42" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -14749,12 +14781,14 @@
       <c r="C82" s="41">
         <v>3</v>
       </c>
-      <c r="D82" s="42"/>
+      <c r="D82" s="42" t="s">
+        <v>105</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -14795,12 +14829,14 @@
       <c r="C83" s="41">
         <v>4</v>
       </c>
-      <c r="D83" s="42"/>
+      <c r="D83" s="42" t="s">
+        <v>106</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -14841,12 +14877,14 @@
       <c r="C84" s="41">
         <v>5</v>
       </c>
-      <c r="D84" s="42"/>
+      <c r="D84" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -14887,12 +14925,14 @@
       <c r="C85" s="41">
         <v>6</v>
       </c>
-      <c r="D85" s="42"/>
+      <c r="D85" s="42" t="s">
+        <v>86</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -14933,12 +14973,14 @@
       <c r="C86" s="41">
         <v>7</v>
       </c>
-      <c r="D86" s="42"/>
+      <c r="D86" s="42" t="s">
+        <v>87</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -14979,12 +15021,14 @@
       <c r="C87" s="41">
         <v>8</v>
       </c>
-      <c r="D87" s="42"/>
+      <c r="D87" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -15025,12 +15069,14 @@
       <c r="C88" s="41">
         <v>9</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
       <c r="H88" s="42" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -15071,12 +15117,14 @@
       <c r="C89" s="41">
         <v>10</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="41"/>
       <c r="H89" s="42" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -15117,12 +15165,14 @@
       <c r="C90" s="41">
         <v>11</v>
       </c>
-      <c r="D90" s="42"/>
+      <c r="D90" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="41"/>
       <c r="H90" s="42" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -15160,12 +15210,18 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="36"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="42"/>
+      <c r="C91" s="41">
+        <v>12</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>109</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="41"/>
-      <c r="H91" s="42"/>
+      <c r="H91" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
@@ -15999,9 +16055,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="K3:M3"/>
@@ -16019,6 +16072,9 @@
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="L18:Q19"/>
     <mergeCell ref="L22:Q31"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728737E0-4F5B-4287-939D-CE77B480E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FE23B8-4032-47B7-8B33-3F16DF957606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,10 +583,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>dish_suggest</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>メイン料理条件入力</t>
     <rPh sb="3" eb="9">
       <t>リョウリジョウケンニュウリョク</t>
@@ -752,6 +748,10 @@
   <si>
     <t>suggestagain</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dishsuggest</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,6 +1375,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1397,9 +1406,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,15 +1483,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1550,6 +1547,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1908,154 +1923,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="72" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="88" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86">
         <v>44350</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="85" t="s">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2242,26 +2257,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="57"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -2286,24 +2301,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -2328,24 +2343,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -2367,13 +2382,11 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
@@ -2411,11 +2424,11 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
@@ -2454,12 +2467,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="J14" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="111"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -2496,24 +2511,22 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
       <c r="AB15" s="47"/>
@@ -2545,17 +2558,17 @@
       <c r="L16" s="50"/>
       <c r="M16" s="50"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="47"/>
@@ -2587,17 +2600,17 @@
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
       <c r="AB17" s="47"/>
@@ -2629,17 +2642,17 @@
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
       <c r="N18" s="28"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
       <c r="AB18" s="47"/>
@@ -2671,17 +2684,19 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
+      <c r="O19" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
@@ -2713,17 +2728,17 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
@@ -2755,17 +2770,17 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="25"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
@@ -2797,17 +2812,17 @@
       <c r="L22" s="47"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="25"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="46"/>
@@ -5263,19 +5278,19 @@
         <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -6542,11 +6557,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="O19:Y22"/>
+    <mergeCell ref="J14:O15"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="O15:Y18"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -6558,8 +6575,6 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6575,7 +6590,7 @@
   <dimension ref="A1:AN110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="J14" sqref="J14:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6584,154 +6599,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="72" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="88" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86">
         <v>44351</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="85" t="s">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -6918,26 +6933,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="57"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -6962,24 +6977,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -7004,24 +7019,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -7128,14 +7143,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="89" t="s">
+      <c r="J14" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="91"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -7150,11 +7165,11 @@
       <c r="AA14" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AB14" s="96" t="s">
+      <c r="AB14" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="98"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="97"/>
       <c r="AE14" s="47"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
@@ -7176,12 +7191,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="94"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -7328,11 +7343,11 @@
       <c r="AA18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="AB18" s="95" t="s">
+      <c r="AB18" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -7430,11 +7445,11 @@
       <c r="AA20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AB20" s="95" t="s">
+      <c r="AB20" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -7566,11 +7581,11 @@
       <c r="AA23" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AB23" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="98"/>
+      <c r="AB23" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="97"/>
       <c r="AE23" s="47"/>
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
@@ -10005,7 +10020,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
@@ -10055,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -10103,7 +10118,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -10151,7 +10166,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -10199,7 +10214,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -10247,13 +10262,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -10297,7 +10312,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -10345,7 +10360,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -11314,12 +11329,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -11335,6 +11344,12 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB14:AD14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11359,154 +11374,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="72" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73" t="s">
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73" t="s">
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="88" t="s">
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="81"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="83"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="82" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="84">
+      <c r="X2" s="85"/>
+      <c r="Y2" s="86">
         <v>44351</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="85" t="s">
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="74" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="79"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="81"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -11693,26 +11708,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="52" t="s">
+      <c r="L9" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="54"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="57"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -11737,24 +11752,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="60"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -11779,24 +11794,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="59"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="62"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -11903,14 +11918,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="91"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="90"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -11947,12 +11962,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="94"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="93"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -11992,7 +12007,7 @@
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
       <c r="L16" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
@@ -12077,14 +12092,14 @@
       <c r="I18" s="25"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
+      <c r="L18" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="103"/>
       <c r="R18" s="28"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -12121,12 +12136,12 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="107"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
       <c r="R19" s="28"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -12247,18 +12262,18 @@
       <c r="I22" s="25"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
+      <c r="L22" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="103"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
@@ -12293,12 +12308,12 @@
       <c r="I23" s="25"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="109"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="50"/>
@@ -12335,12 +12350,12 @@
       <c r="I24" s="25"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="50"/>
@@ -12377,12 +12392,12 @@
       <c r="I25" s="25"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="50"/>
@@ -12419,12 +12434,12 @@
       <c r="I26" s="25"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="50"/>
@@ -12461,12 +12476,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="110"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="109"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -12503,16 +12518,16 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="110"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -12547,16 +12562,16 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -12591,16 +12606,16 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="110"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -12635,16 +12650,16 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="107"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
@@ -12691,14 +12706,14 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y32" s="100"/>
+      <c r="X32" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y32" s="99"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -14734,13 +14749,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
       <c r="H81" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -14782,7 +14797,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -14830,7 +14845,7 @@
         <v>4</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -14878,7 +14893,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -14926,7 +14941,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -14974,7 +14989,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -15022,7 +15037,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -15070,7 +15085,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
@@ -15118,7 +15133,7 @@
         <v>10</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
@@ -15166,7 +15181,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
@@ -15214,7 +15229,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
@@ -16055,6 +16070,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L22:Q31"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="K3:M3"/>
@@ -16071,10 +16090,6 @@
     <mergeCell ref="L9:AC11"/>
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="L18:Q19"/>
-    <mergeCell ref="L22:Q31"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6237AF1F-F47F-417E-BDBA-ECDE40F79536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F605FB-0DFE-4C97-BD16-CC4DC300AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メインページ" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">メイン料理結果表示!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">メイン料理条件入力!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="109">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -203,6 +192,39 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>メイン料理検索</t>
+    <rPh sb="3" eb="7">
+      <t>リョウリケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページロード</t>
+  </si>
+  <si>
+    <t>ロード時に、以下の処理を実行する。</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ログイン状態判定</t>
+    <rPh sb="5" eb="9">
+      <t>ジョウタイハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>①はらペコ。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -264,6 +286,10 @@
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Text</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -342,6 +368,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>MUX</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>▼</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -355,6 +385,67 @@
   </si>
   <si>
     <t>⑥</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>④ジャンルをプルダウンメニューから選択</t>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤カロリーの最大値を入力</t>
+    <rPh sb="6" eb="9">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑥難易度をプルダウンメニューから選択（★☆☆、★★☆、★★★）</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②今日のメニューはコレだ！！</t>
+    <rPh sb="1" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野菜</t>
+    <rPh sb="0" eb="2">
+      <t>ヤサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>穀類・乳製品・その他</t>
+    <rPh sb="0" eb="2">
+      <t>コクルイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニュウセイヒン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -377,6 +468,36 @@
   </si>
   <si>
     <t>〇スパゲッティ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>魚介類</t>
+    <rPh sb="0" eb="3">
+      <t>ギョカイルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>③食材を選ぶ（開閉するナビゲーションメニューで、選択はラジオボタンで1つ）</t>
+    <rPh sb="1" eb="3">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>②どんな気分？？</t>
+    <rPh sb="4" eb="6">
+      <t>キブン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -428,6 +549,33 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>⑧</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧入力してあるものをリセット</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦メイン料理結果表示へ遷移</t>
+    <rPh sb="4" eb="6">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>メイン料理条件入力</t>
     <rPh sb="3" eb="9">
       <t>リョウリジョウケンニュウリョク</t>
@@ -440,6 +588,10 @@
   </si>
   <si>
     <t>はらペコ。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -485,6 +637,92 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>③料理名</t>
+    <rPh sb="1" eb="4">
+      <t>リョウリメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>④写真</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑤食材</t>
+    <rPh sb="1" eb="3">
+      <t>ショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑥ジャンル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑦カロリー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑧難易度</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑨作り方URL</t>
+    <rPh sb="1" eb="2">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑩メインへ戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑪1個前へ戻る</t>
+    <rPh sb="2" eb="4">
+      <t>コマエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑫再提案</t>
+    <rPh sb="1" eb="2">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メイン料理提案結果</t>
+    <rPh sb="3" eb="5">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>dish</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -508,314 +746,6 @@
     <t>dishsuggest</t>
     <phoneticPr fontId="3"/>
   </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>どんな気分？？</t>
-    <rPh sb="3" eb="5">
-      <t>キブン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>②食材を選ぶ（開閉するナビゲーションメニューで、選択はラジオボタンで1つ）</t>
-    <rPh sb="1" eb="3">
-      <t>ショクザイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>③ジャンルをプルダウンメニューから選択</t>
-    <rPh sb="17" eb="19">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>④カロリーの最大値を入力</t>
-    <rPh sb="6" eb="9">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑤難易度をプルダウンメニューから選択（★☆☆、★★☆、★★★）</t>
-    <rPh sb="1" eb="4">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑥メイン料理結果表示へ遷移</t>
-    <rPh sb="4" eb="6">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑦入力してあるものをリセット</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>肉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>🍖</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ニク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>魚介類</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>🐟</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>ギョカイルイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>野菜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>🥬</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ヤサイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>穀類</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>🍚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・乳製品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>🥛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・その他</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>コクルイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウセイヒン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>調味料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>🧴</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>チョウミリョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>今日のメニューはコレだ！！</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>②料理名</t>
-    <rPh sb="1" eb="4">
-      <t>リョウリメイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>③写真</t>
-    <rPh sb="1" eb="3">
-      <t>シャシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>④食材</t>
-    <rPh sb="1" eb="3">
-      <t>ショクザイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑤ジャンル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑥カロリー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑦難易度</t>
-    <rPh sb="1" eb="4">
-      <t>ナンイド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑧作り方URL</t>
-    <rPh sb="1" eb="2">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑨メインへ戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑩1個前へ戻る</t>
-    <rPh sb="2" eb="4">
-      <t>コマエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑪再提案</t>
-    <rPh sb="1" eb="2">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイアン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑧のURLをクリックするとクラシルの該当ページへ遷移</t>
-    <rPh sb="18" eb="20">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>⑪同じ条件でもう一度表示</t>
-    <rPh sb="1" eb="2">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
 </sst>
 </file>
 
@@ -824,7 +754,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -887,16 +817,6 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1448,6 +1368,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,42 +1494,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,15 +1524,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,6 +1531,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,14 +1551,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1986,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -1996,154 +1916,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="71" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="80"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="92"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="81" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="83">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52">
         <v>44350</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="84" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="63"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="73" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="90"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2330,26 +2250,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="55"/>
+      <c r="L9" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -2374,24 +2294,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="70"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -2416,24 +2336,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -2540,14 +2460,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="88"/>
+      <c r="J14" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -2584,12 +2504,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="91"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
@@ -2757,19 +2677,19 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="85"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
+      <c r="O19" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
@@ -2801,17 +2721,17 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="85"/>
-      <c r="Y20" s="85"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
@@ -2843,17 +2763,17 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="85"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
@@ -2885,17 +2805,17 @@
       <c r="L22" s="47"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="85"/>
-      <c r="X22" s="85"/>
-      <c r="Y22" s="85"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="46"/>
@@ -3759,7 +3679,7 @@
       <c r="B43" s="6"/>
       <c r="C43" s="38"/>
       <c r="D43" s="39" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -3803,7 +3723,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
@@ -5301,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -5351,19 +5271,19 @@
         <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -6630,9 +6550,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O19:Y22"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="L9:AC11"/>
     <mergeCell ref="A1:J3"/>
@@ -6648,6 +6565,9 @@
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="O19:Y22"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="AH2:AN2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6662,7 +6582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFD6A0-2235-4599-BF7B-BA0A72DD2A7B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -6672,154 +6592,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="71" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="80"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="92"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="81" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="83">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52">
         <v>44351</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="84" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="63"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="73" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="90"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7006,26 +6926,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="55"/>
+      <c r="L9" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -7050,24 +6970,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="70"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -7092,24 +7012,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -7174,9 +7094,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="47" t="s">
-        <v>39</v>
-      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -7219,7 +7137,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="94" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
@@ -7237,11 +7155,11 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
-      <c r="AA14" s="28" t="s">
-        <v>59</v>
+      <c r="AA14" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="AB14" s="101" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AC14" s="102"/>
       <c r="AD14" s="103"/>
@@ -7310,7 +7228,9 @@
       <c r="I16" s="25"/>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
+      <c r="L16" s="47" t="s">
+        <v>44</v>
+      </c>
       <c r="M16" s="47"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -7396,7 +7316,7 @@
       <c r="K18" s="47"/>
       <c r="L18" s="47"/>
       <c r="M18" s="28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
@@ -7408,16 +7328,16 @@
       <c r="U18" s="28"/>
       <c r="V18" s="28"/>
       <c r="W18" s="28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="28" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AB18" s="100" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AC18" s="100"/>
       <c r="AD18" s="100"/>
@@ -7456,20 +7376,20 @@
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X19" s="28"/>
       <c r="Y19" s="28"/>
       <c r="Z19" s="28"/>
       <c r="AA19" s="28" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB19" s="28"/>
       <c r="AC19" s="48" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD19" s="49" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="AE19" s="25"/>
       <c r="AF19" s="25"/>
@@ -7495,10 +7415,10 @@
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="28" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="M20" s="51" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
@@ -7510,16 +7430,16 @@
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AB20" s="100" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AC20" s="100"/>
       <c r="AD20" s="100"/>
@@ -7548,7 +7468,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="28"/>
       <c r="M21" s="51" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
@@ -7592,7 +7512,7 @@
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
       <c r="M22" s="51" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
@@ -7636,7 +7556,7 @@
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
       <c r="M23" s="51" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
@@ -7652,10 +7572,10 @@
       <c r="Y23" s="25"/>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AB23" s="101" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="AC23" s="102"/>
       <c r="AD23" s="103"/>
@@ -7684,12 +7604,12 @@
       <c r="K24" s="47"/>
       <c r="L24" s="25"/>
       <c r="M24" s="51" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="51" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="50"/>
       <c r="R24" s="50"/>
@@ -7730,12 +7650,12 @@
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="28" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
@@ -7775,9 +7695,7 @@
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="M26" s="28"/>
       <c r="N26" s="25"/>
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
@@ -8441,10 +8359,10 @@
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C42" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -8486,7 +8404,9 @@
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="D43" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -8528,9 +8448,7 @@
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="D44" s="39"/>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -8572,7 +8490,9 @@
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="38"/>
+      <c r="D45" s="39" t="s">
+        <v>25</v>
+      </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
@@ -8614,9 +8534,6 @@
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="38" t="s">
-        <v>84</v>
-      </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -8656,6 +8573,9 @@
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32"/>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="AM47" s="33"/>
       <c r="AN47" s="43"/>
     </row>
@@ -8663,9 +8583,6 @@
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="39"/>
-      <c r="D48" s="38" t="s">
-        <v>85</v>
-      </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
@@ -8707,6 +8624,9 @@
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="34"/>
+      <c r="D49" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -8748,9 +8668,7 @@
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="39"/>
-      <c r="D50" s="40" t="s">
-        <v>86</v>
-      </c>
+      <c r="D50" s="39"/>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -8792,6 +8710,9 @@
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="40"/>
+      <c r="D51" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="E51" s="39"/>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -8833,9 +8754,7 @@
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="40"/>
-      <c r="D52" s="40" t="s">
-        <v>87</v>
-      </c>
+      <c r="D52" s="40"/>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -8877,6 +8796,9 @@
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="40"/>
+      <c r="D53" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -8960,6 +8882,9 @@
       <c r="A55" s="36"/>
       <c r="B55" s="36"/>
       <c r="C55" s="40"/>
+      <c r="D55" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="E55" s="39"/>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -9043,6 +8968,9 @@
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="40"/>
+      <c r="D57" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="E57" s="39"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -10033,19 +9961,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -10083,18 +10011,20 @@
         <v>2</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
       <c r="H81" s="42" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="42"/>
+      <c r="L81" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="42"/>
@@ -10131,13 +10061,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -10179,13 +10109,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -10227,13 +10157,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -10275,20 +10205,18 @@
         <v>6</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="42" t="s">
-        <v>26</v>
-      </c>
+      <c r="L85" s="42"/>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="42"/>
@@ -10325,17 +10253,20 @@
         <v>7</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="41"/>
       <c r="H86" s="42" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
+      <c r="L86" s="42" t="s">
+        <v>30</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="42"/>
@@ -10372,13 +10303,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -10419,9 +10350,15 @@
       <c r="C88" s="41">
         <v>9</v>
       </c>
+      <c r="D88" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
+      <c r="H88" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
@@ -11383,6 +11320,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -11398,12 +11341,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AB14:AD14"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11418,8 +11355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D009406-EBC5-4E69-B0F3-FD3B2CA007B9}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11428,154 +11365,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="71" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72" t="s">
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72" t="s">
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="52" t="s">
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="80"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="92"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="81" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="83">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="52">
         <v>44351</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="84" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="93"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="63"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="73" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="89"/>
+      <c r="AN3" s="90"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -11762,26 +11699,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="55"/>
+      <c r="L9" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -11806,24 +11743,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="58"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="70"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -11848,24 +11785,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="73"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -11930,9 +11867,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="47" t="s">
-        <v>102</v>
-      </c>
+      <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -11974,8 +11909,8 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="106" t="s">
-        <v>93</v>
+      <c r="J14" s="115" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
@@ -12062,7 +11997,9 @@
       <c r="I16" s="25"/>
       <c r="J16" s="47"/>
       <c r="K16" s="47"/>
-      <c r="L16" s="50"/>
+      <c r="L16" s="47" t="s">
+        <v>100</v>
+      </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
@@ -12146,14 +12083,14 @@
       <c r="I18" s="25"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="109"/>
+      <c r="L18" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
       <c r="R18" s="28"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -12316,18 +12253,18 @@
       <c r="I22" s="25"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="109"/>
+      <c r="L22" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="106"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
@@ -12362,12 +12299,12 @@
       <c r="I23" s="25"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="115"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="109"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="50"/>
@@ -12404,12 +12341,12 @@
       <c r="I24" s="25"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="115"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="109"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="50"/>
@@ -12446,12 +12383,12 @@
       <c r="I25" s="25"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="115"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="50"/>
@@ -12488,12 +12425,12 @@
       <c r="I26" s="25"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="115"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="50"/>
@@ -12530,12 +12467,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="115"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="109"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -12572,16 +12509,16 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="115"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="109"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
@@ -12616,16 +12553,16 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="115"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U29" s="44"/>
       <c r="V29" s="44"/>
@@ -12660,16 +12597,16 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="115"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -12713,7 +12650,7 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U31" s="44"/>
       <c r="V31" s="44"/>
@@ -12760,14 +12697,14 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y32" s="105"/>
+      <c r="X32" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y32" s="114"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AC32" s="44"/>
       <c r="AD32" s="44"/>
@@ -13165,7 +13102,9 @@
     <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
+      <c r="C42" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
       <c r="F42" s="38"/>
@@ -13209,7 +13148,7 @@
       <c r="B43" s="36"/>
       <c r="C43" s="38"/>
       <c r="D43" s="38" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38"/>
@@ -13294,8 +13233,8 @@
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="38" t="s">
-        <v>105</v>
+      <c r="D45" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="E45" s="39"/>
       <c r="F45" s="39"/>
@@ -14751,19 +14690,19 @@
         <v>1</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="41"/>
       <c r="H80" s="42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -14801,13 +14740,13 @@
         <v>2</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="41"/>
       <c r="H81" s="42" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -14849,13 +14788,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="41"/>
       <c r="H82" s="42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -14897,13 +14836,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="41"/>
       <c r="H83" s="42" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -14945,13 +14884,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="41"/>
       <c r="H84" s="42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -14993,13 +14932,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="41"/>
       <c r="H85" s="42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -15041,7 +14980,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -15089,13 +15028,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="41"/>
       <c r="H87" s="42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -15137,13 +15076,13 @@
         <v>9</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="41"/>
       <c r="H88" s="42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -15185,13 +15124,13 @@
         <v>10</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="41"/>
       <c r="H89" s="42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -15233,13 +15172,13 @@
         <v>11</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="41"/>
       <c r="H90" s="42" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -15280,9 +15219,15 @@
       <c r="C91" s="41">
         <v>12</v>
       </c>
+      <c r="D91" s="42" t="s">
+        <v>107</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="41"/>
+      <c r="H91" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
@@ -16116,10 +16061,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -16136,6 +16077,10 @@
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="L18:Q19"/>
     <mergeCell ref="L22:Q31"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9EB923-875A-492D-9031-54336C2B89BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3545B-0A52-433D-BE0F-F6ED0A9BF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="135">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1004,6 +1004,90 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>0時台～4時台：無視、5時台～9時台：ジャンルは和食
+10時台～13時台：難易度★★★のみ、14時台～16時台：無視
+17時台～23時台：ニンニクか唐辛子を含む</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ワショク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>トウガラシ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1012,7 +1096,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1085,6 +1169,12 @@
       <sz val="8"/>
       <name val="Segoe UI Emoji"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1509,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1636,14 +1726,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1789,6 +1873,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1828,8 +1921,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2256,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2266,154 +2383,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="92" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93" t="s">
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="73" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="101"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="99"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="102" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="101"/>
+      <c r="Y2" s="102">
         <v>44350</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="54" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="94" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2600,26 +2717,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -2644,24 +2761,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -2686,24 +2803,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -2810,14 +2927,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="67"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -2854,12 +2971,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
@@ -3027,19 +3144,19 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="64" t="s">
+      <c r="O19" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
@@ -3071,17 +3188,17 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
@@ -3113,17 +3230,17 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
@@ -3155,17 +3272,17 @@
       <c r="L22" s="47"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="46"/>
@@ -3297,11 +3414,11 @@
       <c r="AB25" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AC25" s="55" t="s">
+      <c r="AC25" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="55"/>
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
@@ -3343,9 +3460,9 @@
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="47"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="60"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="58"/>
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -3385,9 +3502,9 @@
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="60"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="58"/>
       <c r="AF27" s="25"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
@@ -3427,9 +3544,9 @@
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
-      <c r="AC28" s="61"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="63"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="61"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
@@ -6919,6 +7036,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AC25:AE28"/>
+    <mergeCell ref="O19:Y22"/>
+    <mergeCell ref="J14:O15"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="L9:AC11"/>
@@ -6932,12 +7055,6 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AC25:AE28"/>
-    <mergeCell ref="O19:Y22"/>
-    <mergeCell ref="J14:O15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -6953,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFD6A0-2235-4599-BF7B-BA0A72DD2A7B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25:AD28"/>
+    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6963,154 +7080,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="92" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93" t="s">
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="73" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="101"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="99"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="102" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="101"/>
+      <c r="Y2" s="102">
         <v>44351</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="54" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="94" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7297,26 +7414,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -7341,24 +7458,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -7383,24 +7500,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -7509,14 +7626,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -7531,11 +7648,11 @@
       <c r="AA14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AB14" s="109" t="s">
+      <c r="AB14" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="112"/>
       <c r="AE14" s="47"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
@@ -7557,12 +7674,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -7707,11 +7824,11 @@
       <c r="AA18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" s="108" t="s">
+      <c r="AB18" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -7809,11 +7926,11 @@
       <c r="AA20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AB20" s="108" t="s">
+      <c r="AB20" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="108"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -8043,11 +8160,11 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
-      <c r="AB25" s="55" t="s">
+      <c r="AB25" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="57"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="55"/>
       <c r="AE25" s="47"/>
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
@@ -8089,9 +8206,9 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="60"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="58"/>
       <c r="AE26" s="47"/>
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
@@ -8131,9 +8248,9 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="25"/>
       <c r="AG27" s="25"/>
@@ -8173,9 +8290,9 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="63"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="61"/>
       <c r="AE28" s="25"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
@@ -8259,11 +8376,11 @@
       <c r="AA30" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" s="109" t="s">
+      <c r="AB30" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="112"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
       <c r="AG30" s="44"/>
@@ -10754,16 +10871,18 @@
       <c r="AA88" s="42"/>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
-      <c r="AD88" s="42"/>
-      <c r="AE88" s="17"/>
-      <c r="AF88" s="17"/>
-      <c r="AG88" s="17"/>
-      <c r="AH88" s="17"/>
-      <c r="AI88" s="17"/>
-      <c r="AJ88" s="17"/>
-      <c r="AK88" s="17"/>
-      <c r="AL88" s="17"/>
-      <c r="AM88" s="20"/>
+      <c r="AD88" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE88" s="117"/>
+      <c r="AF88" s="117"/>
+      <c r="AG88" s="117"/>
+      <c r="AH88" s="117"/>
+      <c r="AI88" s="117"/>
+      <c r="AJ88" s="117"/>
+      <c r="AK88" s="117"/>
+      <c r="AL88" s="117"/>
+      <c r="AM88" s="118"/>
       <c r="AN88" s="37"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10798,16 +10917,16 @@
       <c r="AA89" s="42"/>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
-      <c r="AD89" s="42"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="17"/>
-      <c r="AG89" s="17"/>
-      <c r="AH89" s="17"/>
-      <c r="AI89" s="17"/>
-      <c r="AJ89" s="17"/>
-      <c r="AK89" s="17"/>
-      <c r="AL89" s="17"/>
-      <c r="AM89" s="20"/>
+      <c r="AD89" s="122"/>
+      <c r="AE89" s="123"/>
+      <c r="AF89" s="123"/>
+      <c r="AG89" s="123"/>
+      <c r="AH89" s="123"/>
+      <c r="AI89" s="123"/>
+      <c r="AJ89" s="123"/>
+      <c r="AK89" s="123"/>
+      <c r="AL89" s="123"/>
+      <c r="AM89" s="124"/>
       <c r="AN89" s="37"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10840,16 +10959,16 @@
       <c r="AA90" s="42"/>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
-      <c r="AD90" s="42"/>
-      <c r="AE90" s="17"/>
-      <c r="AF90" s="17"/>
-      <c r="AG90" s="17"/>
-      <c r="AH90" s="17"/>
-      <c r="AI90" s="17"/>
-      <c r="AJ90" s="17"/>
-      <c r="AK90" s="17"/>
-      <c r="AL90" s="17"/>
-      <c r="AM90" s="20"/>
+      <c r="AD90" s="119"/>
+      <c r="AE90" s="120"/>
+      <c r="AF90" s="120"/>
+      <c r="AG90" s="120"/>
+      <c r="AH90" s="120"/>
+      <c r="AI90" s="120"/>
+      <c r="AJ90" s="120"/>
+      <c r="AK90" s="120"/>
+      <c r="AL90" s="120"/>
+      <c r="AM90" s="121"/>
       <c r="AN90" s="37"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11693,7 +11812,8 @@
       <c r="AN110" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="AD88:AM90"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -11730,7 +11850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D009406-EBC5-4E69-B0F3-FD3B2CA007B9}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -11740,154 +11860,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="92" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93" t="s">
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="73" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="101"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="99"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="102" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="101"/>
+      <c r="Y2" s="102">
         <v>44351</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="54" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="94" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -12074,26 +12194,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -12118,24 +12238,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -12160,24 +12280,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -12252,11 +12372,11 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="55" t="s">
+      <c r="R13" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="55"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
@@ -12288,19 +12408,19 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="114" t="s">
+      <c r="J14" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="60"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
@@ -12332,17 +12452,17 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -12382,9 +12502,9 @@
       <c r="O16" s="47"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="63"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -12460,14 +12580,14 @@
       <c r="I18" s="25"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="115" t="s">
+      <c r="L18" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="28"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -12504,12 +12624,12 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="63"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="61"/>
       <c r="R19" s="28"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -12630,14 +12750,14 @@
       <c r="I22" s="25"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="115" t="s">
+      <c r="L22" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
@@ -12676,12 +12796,12 @@
       <c r="I23" s="25"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="60"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="50"/>
@@ -12718,12 +12838,12 @@
       <c r="I24" s="25"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="50"/>
@@ -12760,12 +12880,12 @@
       <c r="I25" s="25"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="58"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="50"/>
@@ -12802,12 +12922,12 @@
       <c r="I26" s="25"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="60"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="50"/>
@@ -12844,12 +12964,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="60"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="58"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -12886,12 +13006,12 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="60"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="58"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
@@ -12930,12 +13050,12 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="60"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
@@ -12974,12 +13094,12 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="60"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
@@ -13018,12 +13138,12 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="63"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="61"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
@@ -13074,10 +13194,10 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="112" t="s">
+      <c r="X32" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="Y32" s="113"/>
+      <c r="Y32" s="114"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
@@ -16481,154 +16601,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="92" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="93" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93" t="s">
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93" t="s">
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="73" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100"/>
-      <c r="AN1" s="101"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="99"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="102" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="53" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="101"/>
+      <c r="Y2" s="102">
         <v>44350</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="54" t="s">
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="72"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="94" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="98"/>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="98"/>
-      <c r="AK3" s="98"/>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="99"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="96"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="96"/>
+      <c r="AI3" s="96"/>
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="97"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16815,26 +16935,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="76"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -16859,24 +16979,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="77"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -16901,24 +17021,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="82"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -16983,7 +17103,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="116" t="s">
+      <c r="J13" s="52" t="s">
         <v>132</v>
       </c>
       <c r="K13" s="25"/>
@@ -17027,14 +17147,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="67"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -17071,12 +17191,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="70"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
@@ -21115,10 +21235,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="L9:AC11"/>
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -21132,6 +21248,10 @@
     <mergeCell ref="N1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="L9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計書.xlsx
+++ b/documents/外部設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3545B-0A52-433D-BE0F-F6ED0A9BF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899BABC-7B73-48C1-8E8F-453938C1AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メインページ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="139">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1088,6 +1088,37 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>気温スイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑩</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>⑩初期値をON、気温を加味して提案</t>
+    <rPh sb="1" eb="4">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>temperature</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1729,6 +1760,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1873,14 +1913,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,33 +1978,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2373,7 +2404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2383,154 +2414,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="90" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="71" t="s">
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="99"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="102"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="100" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54">
         <v>44350</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="103" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="92" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="97"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -2717,26 +2748,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="74"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -2761,24 +2792,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -2803,24 +2834,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="83"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -2927,14 +2958,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="65"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -2971,12 +3002,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
@@ -3144,19 +3175,19 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="62" t="s">
+      <c r="O19" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
       <c r="AB19" s="25"/>
@@ -3188,17 +3219,17 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="28"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25"/>
@@ -3230,17 +3261,17 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
       <c r="AB21" s="25"/>
@@ -3272,17 +3303,17 @@
       <c r="L22" s="47"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="46"/>
@@ -3414,11 +3445,11 @@
       <c r="AB25" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="AC25" s="53" t="s">
+      <c r="AC25" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="55"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="58"/>
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
@@ -3460,9 +3491,9 @@
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="47"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="58"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="61"/>
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
@@ -3502,9 +3533,9 @@
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="58"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="61"/>
       <c r="AF27" s="25"/>
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
@@ -3544,9 +3575,9 @@
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="61"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="64"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
@@ -7036,12 +7067,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AC25:AE28"/>
-    <mergeCell ref="O19:Y22"/>
-    <mergeCell ref="J14:O15"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="L9:AC11"/>
@@ -7055,6 +7080,12 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AC25:AE28"/>
+    <mergeCell ref="O19:Y22"/>
+    <mergeCell ref="J14:O15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7070,7 +7101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAFD6A0-2235-4599-BF7B-BA0A72DD2A7B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -7080,154 +7111,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="90" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="71" t="s">
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="99"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="102"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="100" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54">
         <v>44351</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="103" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="92" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="97"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7414,26 +7445,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="74"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -7458,24 +7489,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -7500,24 +7531,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="83"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -7626,14 +7657,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="105"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -7648,11 +7679,11 @@
       <c r="AA14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AB14" s="110" t="s">
+      <c r="AB14" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="112"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="121"/>
       <c r="AE14" s="47"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
@@ -7674,12 +7705,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="108"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
@@ -7824,11 +7855,11 @@
       <c r="AA18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" s="109" t="s">
+      <c r="AB18" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="109"/>
-      <c r="AD18" s="109"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
       <c r="AE18" s="47"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
@@ -7926,11 +7957,11 @@
       <c r="AA20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="AB20" s="109" t="s">
+      <c r="AB20" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="109"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -7967,12 +7998,14 @@
       <c r="T21" s="50"/>
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="47"/>
+      <c r="W21" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
       <c r="AA21" s="25"/>
-      <c r="AB21" s="25"/>
+      <c r="AB21" s="50"/>
       <c r="AC21" s="25"/>
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
@@ -8011,16 +8044,20 @@
       <c r="T22" s="50"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
       <c r="AE22" s="47"/>
       <c r="AF22" s="25"/>
       <c r="AG22" s="25"/>
@@ -8057,18 +8094,14 @@
       <c r="T23" s="50"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="50"/>
+      <c r="W23" s="50" t="s">
+        <v>135</v>
+      </c>
       <c r="X23" s="50"/>
-      <c r="Y23" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z23" s="28" t="s">
-        <v>115</v>
-      </c>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
       <c r="AA23" s="50"/>
-      <c r="AB23" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB23" s="50"/>
       <c r="AC23" s="50"/>
       <c r="AD23" s="50"/>
       <c r="AE23" s="47"/>
@@ -8111,11 +8144,17 @@
       <c r="V24" s="25"/>
       <c r="W24" s="50"/>
       <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
+      <c r="Y24" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z24" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC24" s="28"/>
       <c r="AD24" s="47"/>
       <c r="AE24" s="47"/>
       <c r="AF24" s="25"/>
@@ -8160,11 +8199,11 @@
       <c r="Y25" s="25"/>
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
-      <c r="AB25" s="53" t="s">
+      <c r="AB25" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="55"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="58"/>
       <c r="AE25" s="47"/>
       <c r="AF25" s="25"/>
       <c r="AG25" s="25"/>
@@ -8206,9 +8245,9 @@
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="58"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="61"/>
       <c r="AE26" s="47"/>
       <c r="AF26" s="25"/>
       <c r="AG26" s="25"/>
@@ -8248,9 +8287,9 @@
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="58"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="61"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="25"/>
       <c r="AG27" s="25"/>
@@ -8290,9 +8329,9 @@
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="61"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="64"/>
       <c r="AE28" s="25"/>
       <c r="AF28" s="25"/>
       <c r="AG28" s="25"/>
@@ -8376,11 +8415,11 @@
       <c r="AA30" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB30" s="110" t="s">
+      <c r="AB30" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="112"/>
+      <c r="AC30" s="120"/>
+      <c r="AD30" s="121"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
       <c r="AG30" s="44"/>
@@ -9506,7 +9545,9 @@
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
+      <c r="D58" s="40" t="s">
+        <v>137</v>
+      </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
@@ -10871,18 +10912,18 @@
       <c r="AA88" s="42"/>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
-      <c r="AD88" s="125" t="s">
+      <c r="AD88" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="AE88" s="117"/>
-      <c r="AF88" s="117"/>
-      <c r="AG88" s="117"/>
-      <c r="AH88" s="117"/>
-      <c r="AI88" s="117"/>
-      <c r="AJ88" s="117"/>
-      <c r="AK88" s="117"/>
-      <c r="AL88" s="117"/>
-      <c r="AM88" s="118"/>
+      <c r="AE88" s="105"/>
+      <c r="AF88" s="105"/>
+      <c r="AG88" s="105"/>
+      <c r="AH88" s="105"/>
+      <c r="AI88" s="105"/>
+      <c r="AJ88" s="105"/>
+      <c r="AK88" s="105"/>
+      <c r="AL88" s="105"/>
+      <c r="AM88" s="106"/>
       <c r="AN88" s="37"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10891,11 +10932,15 @@
       <c r="C89" s="41">
         <v>10</v>
       </c>
-      <c r="D89" s="42"/>
+      <c r="D89" s="42" t="s">
+        <v>138</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="41"/>
-      <c r="H89" s="42"/>
+      <c r="H89" s="42" t="s">
+        <v>135</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
@@ -10917,16 +10962,16 @@
       <c r="AA89" s="42"/>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
-      <c r="AD89" s="122"/>
-      <c r="AE89" s="123"/>
-      <c r="AF89" s="123"/>
-      <c r="AG89" s="123"/>
-      <c r="AH89" s="123"/>
-      <c r="AI89" s="123"/>
-      <c r="AJ89" s="123"/>
-      <c r="AK89" s="123"/>
-      <c r="AL89" s="123"/>
-      <c r="AM89" s="124"/>
+      <c r="AD89" s="107"/>
+      <c r="AE89" s="108"/>
+      <c r="AF89" s="108"/>
+      <c r="AG89" s="108"/>
+      <c r="AH89" s="108"/>
+      <c r="AI89" s="108"/>
+      <c r="AJ89" s="108"/>
+      <c r="AK89" s="108"/>
+      <c r="AL89" s="108"/>
+      <c r="AM89" s="109"/>
       <c r="AN89" s="37"/>
     </row>
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10959,16 +11004,16 @@
       <c r="AA90" s="42"/>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
-      <c r="AD90" s="119"/>
-      <c r="AE90" s="120"/>
-      <c r="AF90" s="120"/>
-      <c r="AG90" s="120"/>
-      <c r="AH90" s="120"/>
-      <c r="AI90" s="120"/>
-      <c r="AJ90" s="120"/>
-      <c r="AK90" s="120"/>
-      <c r="AL90" s="120"/>
-      <c r="AM90" s="121"/>
+      <c r="AD90" s="110"/>
+      <c r="AE90" s="111"/>
+      <c r="AF90" s="111"/>
+      <c r="AG90" s="111"/>
+      <c r="AH90" s="111"/>
+      <c r="AI90" s="111"/>
+      <c r="AJ90" s="111"/>
+      <c r="AK90" s="111"/>
+      <c r="AL90" s="111"/>
+      <c r="AM90" s="112"/>
       <c r="AN90" s="37"/>
     </row>
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11813,6 +11858,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L9:AC11"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AB25:AD28"/>
     <mergeCell ref="AD88:AM90"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
@@ -11829,13 +11881,6 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="L9:AC11"/>
-    <mergeCell ref="J14:O15"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AB25:AD28"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11860,154 +11905,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="90" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="71" t="s">
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="99"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="102"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="100" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54">
         <v>44351</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="103" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="92" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="97"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -12194,26 +12239,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="74"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -12238,24 +12283,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -12280,24 +12325,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="83"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -12372,11 +12417,11 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="55"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
@@ -12408,19 +12453,19 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="115" t="s">
+      <c r="J14" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="105"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="61"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
@@ -12452,17 +12497,17 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="108"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="61"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
@@ -12502,9 +12547,9 @@
       <c r="O16" s="47"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
@@ -12580,14 +12625,14 @@
       <c r="I18" s="25"/>
       <c r="J18" s="47"/>
       <c r="K18" s="47"/>
-      <c r="L18" s="116" t="s">
+      <c r="L18" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="28"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
@@ -12624,12 +12669,12 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="61"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64"/>
       <c r="R19" s="28"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -12750,14 +12795,14 @@
       <c r="I22" s="25"/>
       <c r="J22" s="46"/>
       <c r="K22" s="47"/>
-      <c r="L22" s="116" t="s">
+      <c r="L22" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="28" t="s">
@@ -12796,12 +12841,12 @@
       <c r="I23" s="25"/>
       <c r="J23" s="47"/>
       <c r="K23" s="47"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="58"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="50"/>
@@ -12838,12 +12883,12 @@
       <c r="I24" s="25"/>
       <c r="J24" s="47"/>
       <c r="K24" s="47"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="61"/>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="50"/>
@@ -12880,12 +12925,12 @@
       <c r="I25" s="25"/>
       <c r="J25" s="47"/>
       <c r="K25" s="47"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="61"/>
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="50"/>
@@ -12922,12 +12967,12 @@
       <c r="I26" s="25"/>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="58"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="61"/>
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="50"/>
@@ -12964,12 +13009,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="58"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="61"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
@@ -13006,12 +13051,12 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="61"/>
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="28" t="s">
@@ -13050,12 +13095,12 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="61"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="28" t="s">
@@ -13094,12 +13139,12 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="58"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="61"/>
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="28" t="s">
@@ -13138,12 +13183,12 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="61"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="64"/>
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="28" t="s">
@@ -13194,10 +13239,10 @@
       <c r="U32" s="44"/>
       <c r="V32" s="44"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="113" t="s">
+      <c r="X32" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="Y32" s="114"/>
+      <c r="Y32" s="123"/>
       <c r="Z32" s="44"/>
       <c r="AA32" s="44"/>
       <c r="AB32" s="25" t="s">
@@ -16556,11 +16601,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="R13:T16"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -16577,6 +16617,11 @@
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
+    <mergeCell ref="R13:T16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16601,154 +16646,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="90" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91" t="s">
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="71" t="s">
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98"/>
-      <c r="AN1" s="99"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="101"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="102"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="100" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101" t="s">
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="102">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="54">
         <v>44350</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="103" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="92" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="93"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="97"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="100"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -16935,26 +16980,26 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="72" t="s">
+      <c r="L9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="74"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="77"/>
       <c r="AD9" s="25"/>
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
@@ -16979,24 +17024,24 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
@@ -17021,24 +17066,24 @@
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="83"/>
       <c r="AD11" s="25"/>
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
@@ -17147,14 +17192,14 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="65"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -17191,12 +17236,12 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
@@ -21235,6 +21280,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L9:AC11"/>
     <mergeCell ref="J14:O15"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
@@ -21251,7 +21297,6 @@
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
-    <mergeCell ref="L9:AC11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
